--- a/outputs/raw/RFQ_Analysis_by_Customer.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Customer.xlsx
@@ -1776,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>

--- a/outputs/raw/RFQ_Analysis_by_Customer.xlsx
+++ b/outputs/raw/RFQ_Analysis_by_Customer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CUSTOMER1</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -506,23 +506,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>173082.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -531,40 +531,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CUSTOMER1</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>59472</v>
+        <v>166125.31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -573,46 +573,46 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CUSTOMER1</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>48863.5</v>
+        <v>362719.49</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -624,15 +624,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CUSTOMER10</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -642,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>89567.92</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -660,21 +660,21 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CUSTOMER10</t>
+          <t>CUST_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>62370.52</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -708,34 +708,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CUSTOMER10</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>193527.07</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -750,22 +750,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CUSTOMER11</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -777,46 +777,46 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CUSTOMER11</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>253176.39</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUSTOMER11</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -842,65 +842,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>241373.26</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CUSTOMER12</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>126276.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -918,34 +918,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CUSTOMER13</t>
+          <t>CUST_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>129948</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -960,37 +960,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CUSTOMER13</t>
+          <t>CUST_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134785.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1002,40 +1002,40 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CUSTOMER13</t>
+          <t>CUST_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>156056.84</v>
+        <v>169265.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1044,40 +1044,40 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CUSTOMER13</t>
+          <t>CUST_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>68059.53</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1086,57 +1086,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CUSTOMER14</t>
+          <t>CUST_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>203908.42</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CUSTOMER14</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>83689.11</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1170,15 +1170,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CUSTOMER14</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1188,22 +1188,22 @@
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>134996.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1212,37 +1212,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CUSTOMER15</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>82506.06</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1254,40 +1254,40 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUSTOMER15</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>240136.86</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1296,34 +1296,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CUSTOMER15</t>
+          <t>CUST_12</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>166369.06</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CUSTOMER15</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CUSTOMER16</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1388,41 +1388,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>144603.12</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CUSTOMER16</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1430,23 +1430,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>154482.37</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CUSTOMER16</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1472,29 +1472,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62339.2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CUSTOMER16</t>
+          <t>CUST_13</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1514,29 +1514,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>131274.21</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1548,31 +1548,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CUSTOMER16</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>245377.88</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1590,115 +1590,115 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CUSTOMER17</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>258090.32</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CUSTOMER17</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>83424.44</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CUSTOMER17</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>127778.92</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1710,21 +1710,21 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CUSTOMER18</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1734,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>67003.64999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1758,15 +1758,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CUSTOMER18</t>
+          <t>CUST_14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1776,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>89280.81</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1794,17 +1794,17 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CUSTOMER18</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1842,79 +1842,79 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CUSTOMER19</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>54025.65</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CUSTOMER19</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>239237.26</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CUSTOMER19</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1934,32 +1934,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>349095.35</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -1968,37 +1968,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CUSTOMER2</t>
+          <t>CUST_15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101957.28</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2010,37 +2010,37 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CUSTOMER2</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>126897.6</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2052,15 +2052,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CUSTOMER2</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -2070,13 +2070,13 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>122104.37</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2088,37 +2088,37 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CUSTOMER2</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>168117.82</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2136,11 +2136,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CUSTOMER20</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2148,41 +2148,41 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>73873.25999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CUSTOMER20</t>
+          <t>CUST_16</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2190,22 +2190,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>151990.98</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2214,34 +2214,34 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CUSTOMER20</t>
+          <t>CUST_17</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>88629.12</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_17</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>91893.49000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2304,31 +2304,31 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_17</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>72967.23</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2337,24 +2337,24 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_17</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2364,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>84654.45</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2388,11 +2388,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2400,41 +2400,41 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>144511.32</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2442,25 +2442,25 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>49360.48</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2472,11 +2472,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CUSTOMER21</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2514,31 +2514,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>301003.12</v>
+        <v>265595.44</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2550,43 +2550,43 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>168677.42</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2598,15 +2598,15 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CUSTOMER22</t>
+          <t>CUST_18</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2616,55 +2616,55 @@
         <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>111845.82</v>
       </c>
       <c r="G52" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CUSTOMER23</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>85338.3</v>
+        <v>112345.98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2682,34 +2682,34 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CUSTOMER23</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CUSTOMER24</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2732,29 +2732,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>145682.72</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CUSTOMER24</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2774,29 +2774,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>121598.8</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -2808,11 +2808,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CUSTOMER25</t>
+          <t>CUST_19</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2820,61 +2820,61 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>120143.67</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CUSTOMER25</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>171256.48</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2892,73 +2892,73 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CUSTOMER25</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>22502.4</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CUSTOMER25</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>407156.69</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -2967,40 +2967,40 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CUSTOMER25</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>190374.66</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3018,31 +3018,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CUSTOMER3</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>153406.8</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3054,25 +3054,25 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CUSTOMER3</t>
+          <t>CUST_2</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CUSTOMER4</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3110,29 +3110,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>181882.07</v>
+        <v>58612.73</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -3144,31 +3144,31 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CUSTOMER4</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>330895.55</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3180,37 +3180,37 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CUSTOMER4</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>241856.45</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -3219,82 +3219,82 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CUSTOMER5</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>33173.04</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CUSTOMER5</t>
+          <t>CUST_3</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>147088.52</v>
+        <v>166377.1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3303,40 +3303,40 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CUSTOMER5</t>
+          <t>CUST_4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>133946.54</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3354,11 +3354,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_4</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3366,19 +3366,19 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>68818.59</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3390,17 +3390,17 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_4</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3408,25 +3408,25 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>57215.62</v>
+        <v>106146.83</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3438,11 +3438,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_4</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3450,41 +3450,41 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>220744.4</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_4</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3501,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3516,43 +3516,43 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CUSTOMER6</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>78956.8</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -3564,37 +3564,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CUSTOMER7</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>263100.75</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -3606,37 +3606,37 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CUSTOMER7</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>76973.88</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3648,28 +3648,28 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CUSTOMER7</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>72853.75</v>
+        <v>61268.7</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3678,52 +3678,52 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CUSTOMER7</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>58551.69</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -3732,15 +3732,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_5</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3750,13 +3750,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>243894.36</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3768,21 +3768,21 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3792,16 +3792,16 @@
         <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>164836.05</v>
       </c>
       <c r="G80" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3810,21 +3810,21 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -3834,13 +3834,13 @@
         <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>49842.54</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3849,40 +3849,40 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CUSTOMER8</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>307799.74</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -3894,79 +3894,79 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CUSTOMER9</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>75564.36</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CUSTOMER9</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>160927.44</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -3984,40 +3984,40 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CUSTOMER9</t>
+          <t>CUST_6</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>140543.81</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -4026,42 +4026,672 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CUSTOMER9</t>
+          <t>CUST_7</t>
         </is>
       </c>
       <c r="B86" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>213041.14</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>221702.57</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>76749.53999999999</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>146574.26</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CUST_7</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
         <v>2024</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Laura Jackson</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>264536.3</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>173764.96</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>247783.98</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>84643.19</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>113658.49</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CUST_8</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Robyn George</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>209432.31</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>255075.36</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>68712.3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>159735.36</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>148666.76</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CUST_9</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Randy Byerly</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>149568.47</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
